--- a/bh3/553844635641528767_2021-08-01_12-00-03.xlsx
+++ b/bh3/553844635641528767_2021-08-01_12-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5094980246</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-15 08:51:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44423.36925925926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:15:16</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44422.42726851852</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:06:38</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44419.92127314815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>5125187402</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-11 01:21:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44419.05655092592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-10 10:53:00</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44418.45347222222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-09 10:49:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44417.45104166667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-08 09:47:55</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44416.40827546296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>5094980246</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-07 17:17:26</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44415.72043981482</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1123,10 +1123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-07 03:25:56</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44415.14300925926</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1204,10 +1202,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-07 02:50:05</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44415.11811342592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1279,10 +1275,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-07 01:05:24</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44415.04541666667</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1350,10 +1344,8 @@
           <t>5081145689</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-05 23:54:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44413.9962037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1413,10 +1405,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-05 20:35:01</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44413.85765046296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1484,10 +1474,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-05 19:31:13</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44413.81334490741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1547,10 +1535,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-05 19:24:26</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44413.80863425926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1611,10 +1597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-05 18:10:20</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44413.75717592592</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1678,10 +1662,8 @@
           <t>5043344441</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-05 17:12:16</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44413.71685185185</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1753,10 +1735,8 @@
           <t>5074424487</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-05 09:08:57</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44413.38121527778</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1824,10 +1804,8 @@
           <t>5056418221</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-05 09:07:49</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44413.38042824074</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1891,10 +1869,8 @@
           <t>5064645228</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-05 05:44:59</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44413.23957175926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1966,10 +1942,8 @@
           <t>5064645228</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-05 05:43:38</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44413.23863425926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2041,10 +2015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-05 03:41:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44413.15359953704</v>
       </c>
       <c r="I23" t="n">
         <v>17</v>
@@ -2116,10 +2088,8 @@
           <t>5064645228</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-04 23:52:41</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44412.99491898148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2195,10 +2165,8 @@
           <t>5065679719</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-04 23:37:59</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44412.98471064815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2275,10 +2243,8 @@
           <t>5065679719</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-04 23:32:56</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44412.9812037037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2355,10 +2321,8 @@
           <t>5072626474</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-04 23:26:08</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44412.97648148148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2434,10 +2398,8 @@
           <t>5072588491</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-04 23:22:18</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44412.97381944444</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2513,10 +2475,8 @@
           <t>5065679719</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-04 23:18:35</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44412.97123842593</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2576,10 +2536,8 @@
           <t>5071974864</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-04 22:11:52</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44412.92490740741</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2655,10 +2613,8 @@
           <t>5071533732</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-04 21:20:30</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44412.88923611111</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2734,10 +2690,8 @@
           <t>5071521037</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-04 21:18:59</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44412.88818287037</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2813,10 +2767,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-04 18:42:16</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44412.77935185185</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2893,10 +2845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-04 15:58:04</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44412.66532407407</v>
       </c>
       <c r="I34" t="n">
         <v>77</v>
@@ -2960,10 +2910,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-04 15:32:16</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44412.64740740741</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3031,10 +2979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-04 14:15:01</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44412.59376157408</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3098,10 +3044,8 @@
           <t>5067871499</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:20:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44412.55565972222</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3169,10 +3113,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:06:12</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44412.54597222222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3244,10 +3186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-04 11:31:16</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44412.4800462963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3311,10 +3251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-04 10:00:01</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44412.41667824074</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3382,10 +3320,8 @@
           <t>5065817754</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-04 08:06:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44412.33753472222</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3457,10 +3393,8 @@
           <t>5065807707</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-04 08:05:12</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44412.33694444445</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3532,10 +3466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-04 07:35:31</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44412.31633101852</v>
       </c>
       <c r="I43" t="n">
         <v>12</v>
@@ -3612,10 +3544,8 @@
           <t>5065679719</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-04 07:26:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44412.31037037037</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3692,10 +3622,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-04 04:11:39</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44412.17475694444</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3771,10 +3699,8 @@
           <t>5065021867</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-04 01:21:43</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44412.05674768519</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3850,10 +3776,8 @@
           <t>5064954859</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-04 01:07:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44412.04696759259</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3925,10 +3849,8 @@
           <t>5064645228</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-04 00:12:49</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44412.00890046296</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4000,10 +3922,8 @@
           <t>5064584869</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-04 00:05:30</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44412.00381944444</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4067,10 +3987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-04 00:01:00</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44412.00069444445</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4130,10 +4048,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-03 23:20:59</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44411.9729050926</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4209,10 +4125,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-03 23:20:13</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44411.97237268519</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4284,10 +4198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-03 23:11:23</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44411.96623842593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4352,10 +4264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-03 21:59:12</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44411.91611111111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4420,10 +4330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-03 21:56:12</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44411.91402777778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4487,10 +4395,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-03 20:32:21</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44411.85579861111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4554,10 +4460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-03 20:30:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44411.85422453703</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4633,10 +4537,8 @@
           <t>5062741434</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-03 20:28:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44411.85320601852</v>
       </c>
       <c r="I58" t="n">
         <v>6</v>
@@ -4712,10 +4614,8 @@
           <t>5062724515</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-03 20:27:27</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44411.85239583333</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4791,10 +4691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-03 18:59:42</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44411.79145833333</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4866,10 +4764,8 @@
           <t>5061966205</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-03 18:56:18</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44411.78909722222</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4945,10 +4841,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-03 18:50:36</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44411.78513888889</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5016,10 +4910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-03 15:53:43</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44411.66230324074</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5079,10 +4971,8 @@
           <t>5060073762</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-03 14:32:28</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44411.60587962963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5158,10 +5048,8 @@
           <t>5059567661</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-03 13:16:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44411.55299768518</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5237,10 +5125,8 @@
           <t>5059561868</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-03 13:15:37</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44411.55251157407</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5316,10 +5202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-03 09:31:19</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44411.39674768518</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5395,10 +5279,8 @@
           <t>5043222904</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-03 08:51:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44411.36934027778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5462,10 +5344,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-03 04:42:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44411.19646990741</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5533,10 +5413,8 @@
           <t>5056418221</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-03 00:12:54</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44411.00895833333</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5612,10 +5490,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-02 22:58:14</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44410.95710648148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5695,10 +5571,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-02 22:39:26</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44410.94405092593</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5767,10 +5641,8 @@
           <t>5055563243</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-02 22:26:52</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44410.93532407407</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5838,10 +5710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-02 21:52:24</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44410.91138888889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5909,10 +5779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-02 21:47:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44410.90827546296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5976,10 +5844,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-02 19:31:09</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44410.81329861111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6047,10 +5913,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-02 17:44:44</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44410.73939814815</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6126,10 +5990,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-02 17:39:17</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44410.73561342592</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6197,10 +6059,8 @@
           <t>5052658030</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-02 16:28:01</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44410.68612268518</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6264,10 +6124,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-02 16:11:35</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44410.67471064815</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6343,10 +6201,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-02 16:10:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44410.67405092593</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6422,10 +6278,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-02 16:07:56</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44410.67217592592</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6489,10 +6343,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:49:38</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44410.6594675926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6568,10 +6420,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:46:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44410.65744212963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6635,10 +6485,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:24:52</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44410.64226851852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6714,10 +6562,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:20:14</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44410.63905092593</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6781,10 +6627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-02 14:58:55</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44410.62424768518</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6860,10 +6704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-02 14:49:39</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44410.6178125</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6939,10 +6781,8 @@
           <t>5052054891</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-02 14:47:35</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44410.61637731481</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7018,10 +6858,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-02 14:38:51</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44410.6103125</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7097,10 +6935,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-02 14:31:01</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44410.60487268519</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7168,10 +7004,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-02 13:58:30</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44410.58229166667</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7239,10 +7073,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-02 13:49:57</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44410.57635416667</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7310,10 +7142,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-02 13:46:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44410.57418981481</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7381,10 +7211,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-02 13:39:59</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44410.56943287037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7460,10 +7288,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-02 13:32:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44410.56439814815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7531,10 +7357,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-02 13:04:01</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44410.54445601852</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7610,10 +7434,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-02 12:24:47</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44410.51721064815</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7681,10 +7503,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-02 11:46:30</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44410.490625</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7760,10 +7580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-02 11:42:44</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44410.48800925926</v>
       </c>
       <c r="I100" t="n">
         <v>9</v>
@@ -7831,10 +7649,8 @@
           <t>5050721129</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-02 11:37:31</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44410.48438657408</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7906,10 +7722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-02 11:23:04</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44410.47435185185</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7985,10 +7799,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-02 11:17:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44410.47077546296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8064,10 +7876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-02 09:57:59</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44410.4152662037</v>
       </c>
       <c r="I104" t="n">
         <v>6</v>
@@ -8139,10 +7949,8 @@
           <t>5050085980</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-02 09:55:08</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44410.41328703704</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8206,10 +8014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-02 09:40:56</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44410.40342592593</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8278,10 +8084,8 @@
           <t>5049591078</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-02 08:06:10</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44410.33761574074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8341,10 +8145,8 @@
           <t>5049539627</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:55:11</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44410.32998842592</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8420,10 +8222,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:49:45</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44410.32621527778</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8499,10 +8299,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:49:20</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44410.32592592593</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8578,10 +8376,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:47:08</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44410.32439814815</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8649,10 +8445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:15:30</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44410.30243055556</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8720,10 +8514,8 @@
           <t>5045774701</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:05:31</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44410.29549768518</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8799,10 +8591,8 @@
           <t>5049404732</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:04:49</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44410.29501157408</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8878,10 +8668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-02 06:21:01</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44410.26459490741</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -8949,10 +8737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-02 05:49:55</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44410.24299768519</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9016,10 +8802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-02 04:52:59</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44410.20346064815</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -9087,10 +8871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-02 01:25:55</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44410.05966435185</v>
       </c>
       <c r="I118" t="n">
         <v>10</v>
@@ -9166,10 +8948,8 @@
           <t>5043751171</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-02 00:39:35</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44410.02748842593</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9245,10 +9025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-01 23:08:54</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44409.96451388889</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9324,10 +9102,8 @@
           <t>5044238729</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-01 22:28:55</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44409.93674768518</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9395,10 +9171,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-01 21:04:29</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44409.87811342593</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9474,10 +9248,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-01 20:19:10</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44409.84664351852</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9545,10 +9317,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-01 20:18:21</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44409.84607638889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9616,10 +9386,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:44:56</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44409.82287037037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9683,10 +9451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:44:24</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44409.8225</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9750,10 +9516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:22:55</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44409.80758101852</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9829,10 +9593,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:22:35</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44409.80734953703</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9910,10 +9672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:20:55</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44409.80619212963</v>
       </c>
       <c r="I129" t="n">
         <v>7</v>
@@ -9981,10 +9741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:20:10</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44409.80567129629</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10052,10 +9810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:18:38</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44409.80460648148</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10119,10 +9875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:13:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44409.80096064815</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10194,10 +9948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:12:19</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44409.80021990741</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10257,10 +10009,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:09:47</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44409.79846064815</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10332,10 +10082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:56:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44409.78890046296</v>
       </c>
       <c r="I135" t="n">
         <v>5</v>
@@ -10399,10 +10147,8 @@
           <t>5045792536</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:53:38</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44409.78724537037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10478,10 +10224,8 @@
           <t>5045774701</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:52:24</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44409.78638888889</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10541,10 +10285,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:27:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44409.76900462963</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10608,10 +10350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:24:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44409.76706018519</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10675,10 +10415,8 @@
           <t>5045518463</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:18:46</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44409.76303240741</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10746,10 +10484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:11:31</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44409.75799768518</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10817,10 +10553,8 @@
           <t>5043094381</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-01 17:42:57</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44409.73815972222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10885,10 +10619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-01 17:37:52</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44409.73462962963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10948,10 +10680,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-01 17:17:19</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44409.72035879629</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11023,10 +10753,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-01 17:07:42</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44409.71368055556</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11102,10 +10830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-01 17:00:45</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44409.70885416667</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11177,10 +10903,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:58:00</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44409.70694444444</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11252,10 +10976,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:57:05</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44409.70630787037</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11331,10 +11053,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:56:20</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44409.70578703703</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11406,10 +11126,8 @@
           <t>5044890864</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:51:36</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44409.7025</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11469,10 +11187,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:47:56</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44409.6999537037</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11540,10 +11256,8 @@
           <t>5044870284</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:47:44</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44409.69981481481</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11619,10 +11333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:42:32</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44409.6962037037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11690,10 +11402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:34:24</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44409.69055555556</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11765,10 +11475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:21:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44409.68193287037</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -11844,10 +11552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:10:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44409.67390046296</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11923,10 +11629,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:08:42</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44409.67270833333</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11990,10 +11694,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:03:13</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44409.66890046297</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12061,10 +11763,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:59:12</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44409.66611111111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12124,10 +11824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:48:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44409.65879629629</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12199,10 +11897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:44:58</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44409.65622685185</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -12267,10 +11963,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:44:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44409.65597222222</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12346,10 +12040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:42:46</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44409.65469907408</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12421,10 +12113,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:35:27</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44409.64961805556</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12496,10 +12186,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:30:24</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44409.64611111111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12575,10 +12263,8 @@
           <t>5044358750</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:27:56</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44409.64439814815</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12646,10 +12332,8 @@
           <t>5044355548</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:26:23</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44409.64332175926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12709,10 +12393,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:25:30</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44409.64270833333</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12772,10 +12454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:24:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44409.64192129629</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12839,10 +12519,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:22:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44409.64053240741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12910,10 +12588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:20:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44409.63896990741</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12984,10 +12660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:13:07</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44409.63410879629</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -13055,10 +12729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:13:03</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44409.6340625</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13122,10 +12794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:12:29</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44409.63366898148</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13199,10 +12869,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:08:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44409.63107638889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13278,10 +12946,8 @@
           <t>5044238729</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:07:56</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44409.63050925926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13345,10 +13011,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:06:10</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44409.6292824074</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13412,10 +13076,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:04:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44409.62806712963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13487,10 +13149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:02:57</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44409.62704861111</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13566,10 +13226,8 @@
           <t>5043751171</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:01:46</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44409.62622685185</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13637,10 +13295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:00:52</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44409.62560185185</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13714,10 +13370,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:00:27</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44409.6253125</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13793,10 +13447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:56:06</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44409.62229166667</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13872,10 +13524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:55:46</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44409.62206018518</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13943,10 +13593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:54:31</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44409.62119212963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14018,10 +13666,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:54:09</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44409.6209375</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14093,10 +13739,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:53:13</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44409.62028935185</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14168,10 +13812,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:53:08</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44409.62023148148</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14247,10 +13889,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:52:55</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44409.62008101852</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14322,10 +13962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:51:36</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44409.61916666666</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14389,10 +14027,8 @@
           <t>5044139992</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:51:31</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44409.61910879629</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14460,10 +14096,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:51:24</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44409.61902777778</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14539,10 +14173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:44:46</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44409.6144212963</v>
       </c>
       <c r="I193" t="n">
         <v>79</v>
@@ -14618,10 +14250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:37:36</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44409.60944444445</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14697,10 +14327,8 @@
           <t>5044040786</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:34:44</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44409.60745370371</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14772,10 +14400,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:29:26</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44409.60377314815</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14851,10 +14477,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:28:54</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44409.60340277778</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14930,10 +14554,8 @@
           <t>5044007751</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:28:38</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44409.60321759259</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15001,10 +14623,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:22:34</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44409.59900462963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15076,10 +14696,8 @@
           <t>5043751171</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:22:28</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44409.59893518518</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15155,10 +14773,8 @@
           <t>5043632419</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:22:10</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44409.59872685185</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15235,10 +14851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:21:37</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44409.5983449074</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15302,10 +14916,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:19:51</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44409.59711805556</v>
       </c>
       <c r="I203" t="n">
         <v>5</v>
@@ -15381,10 +14993,8 @@
           <t>5043344441</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:17:05</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44409.59519675926</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15456,10 +15066,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:16:58</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44409.59511574074</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15531,10 +15139,8 @@
           <t>5043094381</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:16:43</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44409.59494212963</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15602,10 +15208,8 @@
           <t>5043908285</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:13:54</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44409.59298611111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15669,10 +15273,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:12:23</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44409.59193287037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15740,10 +15342,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:10:01</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44409.59028935185</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15820,10 +15420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:08:56</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44409.58953703703</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15895,10 +15493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:08:02</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44409.58891203703</v>
       </c>
       <c r="I211" t="n">
         <v>4</v>
@@ -15962,10 +15558,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:03:58</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44409.58608796296</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16041,10 +15635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:03:22</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44409.5856712963</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16122,10 +15714,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:02:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44409.58513888889</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16189,10 +15779,8 @@
           <t>5043826167</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:00:54</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44409.58395833334</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16268,10 +15856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:59:54</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44409.58326388889</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16347,10 +15933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:59:49</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44409.58320601852</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16426,10 +16010,8 @@
           <t>5043812814</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:59:19</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44409.5828587963</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16501,10 +16083,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:58:01</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44409.58195601852</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16572,10 +16152,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:56:14</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44409.58071759259</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16643,10 +16221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:54:14</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44409.5793287037</v>
       </c>
       <c r="I221" t="n">
         <v>4</v>
@@ -16714,10 +16290,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:53:03</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44409.57850694445</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16789,10 +16363,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:52:52</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44409.57837962963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16856,10 +16428,8 @@
           <t>5043751171</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:49:21</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44409.5759375</v>
       </c>
       <c r="I224" t="n">
         <v>4</v>
@@ -16931,10 +16501,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:48:59</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44409.57568287037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17006,10 +16574,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:48:21</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44409.57524305556</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17081,10 +16647,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:47:02</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44409.5743287037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17148,10 +16712,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:45:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44409.5731712963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17223,10 +16785,8 @@
           <t>5043716759</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:45:13</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44409.57306712963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17294,10 +16854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:44:00</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44409.57222222222</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17365,10 +16923,8 @@
           <t>5043194968</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:42:35</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44409.57123842592</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17436,10 +16992,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:39:52</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44409.56935185185</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17511,10 +17065,8 @@
           <t>5043674188</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:39:52</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44409.56935185185</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17582,10 +17134,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:36:41</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44409.5671412037</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17653,10 +17203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:33:54</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44409.56520833333</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17732,10 +17280,8 @@
           <t>5043632419</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:33:43</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44409.56508101852</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17804,10 +17350,8 @@
           <t>5043244770</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:33:16</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44409.56476851852</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17879,10 +17423,8 @@
           <t>5043187715</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:31:26</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44409.56349537037</v>
       </c>
       <c r="I238" t="n">
         <v>18</v>
@@ -17954,10 +17496,8 @@
           <t>5043602053</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:29:39</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44409.56225694445</v>
       </c>
       <c r="I239" t="n">
         <v>24</v>
@@ -18030,10 +17570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:26:32</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44409.56009259259</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18109,10 +17647,8 @@
           <t>5043567085</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:24:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44409.55862268519</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18180,10 +17716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:21:39</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44409.55670138889</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18247,10 +17781,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:20:30</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44409.55590277778</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18326,10 +17858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:18:18</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44409.554375</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18401,10 +17931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:18:10</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44409.55428240741</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18480,10 +18008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:17:04</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44409.55351851852</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18555,10 +18081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:16:47</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44409.55332175926</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18630,10 +18154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:15:38</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44409.55252314815</v>
       </c>
       <c r="I248" t="n">
         <v>389</v>
@@ -18711,10 +18233,8 @@
           <t>5043496693</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:14:48</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44409.55194444444</v>
       </c>
       <c r="I249" t="n">
         <v>41</v>
@@ -18790,10 +18310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:14:10</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44409.55150462963</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18857,10 +18375,8 @@
           <t>5042989294</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:14:04</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44409.55143518518</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18924,10 +18440,8 @@
           <t>5043344441</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:07:43</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44409.54702546296</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18991,10 +18505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:06:58</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44409.54650462963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19062,10 +18574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:05:51</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44409.54572916667</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19133,10 +18643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:04:50</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44409.54502314814</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19208,10 +18716,8 @@
           <t>5043267269</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:04:32</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44409.54481481481</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19287,10 +18793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:04:02</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44409.54446759259</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19363,10 +18867,8 @@
           <t>5043406136</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:03:45</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44409.54427083334</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19442,10 +18944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:03:19</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44409.5439699074</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19521,10 +19021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:03:03</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44409.54378472222</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19600,10 +19098,8 @@
           <t>5043386414</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:02:29</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44409.5433912037</v>
       </c>
       <c r="I261" t="n">
         <v>8</v>
@@ -19667,10 +19163,8 @@
           <t>5043267269</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:01:18</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44409.54256944444</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19746,10 +19240,8 @@
           <t>5043386414</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:00:25</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44409.54195601852</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19821,10 +19313,8 @@
           <t>5043363147</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:58:36</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44409.54069444445</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19892,10 +19382,8 @@
           <t>5043349785</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:57:08</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44409.53967592592</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19967,10 +19455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:56:47</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44409.53943287037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20046,10 +19532,8 @@
           <t>5042989294</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:56:08</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44409.53898148148</v>
       </c>
       <c r="I267" t="n">
         <v>6</v>
@@ -20125,10 +19609,8 @@
           <t>5043355105</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:56:07</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44409.53896990741</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20192,10 +19674,8 @@
           <t>5043344441</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:55:52</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44409.5387962963</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
@@ -20267,10 +19747,8 @@
           <t>5043339914</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:55:50</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44409.53877314815</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20338,10 +19816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:55:43</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44409.53869212963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20413,10 +19889,8 @@
           <t>5043341656</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:54:51</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44409.53809027778</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20492,10 +19966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:54:02</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44409.53752314814</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20563,10 +20035,8 @@
           <t>5043324854</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:53:49</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44409.53737268518</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20642,10 +20112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:53:37</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44409.5372337963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20705,10 +20173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:53:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44409.53702546296</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20772,10 +20238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:52:55</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44409.53674768518</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20851,10 +20315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:52:06</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44409.53618055556</v>
       </c>
       <c r="I278" t="n">
         <v>49</v>
@@ -20922,10 +20384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:49:30</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44409.534375</v>
       </c>
       <c r="I279" t="n">
         <v>87</v>
@@ -20993,10 +20453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:48:12</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44409.53347222223</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21068,10 +20526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:48:11</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44409.53346064815</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21139,10 +20595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:46:35</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44409.53234953704</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21218,10 +20672,8 @@
           <t>5043267269</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:45:44</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44409.53175925926</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21289,10 +20741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:45:10</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44409.53136574074</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21360,10 +20810,8 @@
           <t>5043252047</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:43:36</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44409.53027777778</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21439,10 +20887,8 @@
           <t>5043244770</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:43:21</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44409.53010416667</v>
       </c>
       <c r="I286" t="n">
         <v>5</v>
@@ -21510,10 +20956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:42:48</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44409.52972222222</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21589,10 +21033,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:41:57</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44409.52913194444</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21664,10 +21106,8 @@
           <t>5043240621</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:41:50</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44409.52905092593</v>
       </c>
       <c r="I289" t="n">
         <v>6</v>
@@ -21743,10 +21183,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:41:50</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44409.52905092593</v>
       </c>
       <c r="I290" t="n">
         <v>19</v>
@@ -21814,10 +21252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:41:03</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44409.52850694444</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21881,10 +21317,8 @@
           <t>5043228240</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:41:00</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44409.52847222222</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21952,10 +21386,8 @@
           <t>5043226221</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:40:17</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44409.52797453704</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -22023,10 +21455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:40:12</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44409.52791666667</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22094,10 +21524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:40:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44409.52783564815</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22170,10 +21598,8 @@
           <t>5043222904</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:39:48</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44409.52763888889</v>
       </c>
       <c r="I296" t="n">
         <v>68</v>
@@ -22241,10 +21667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:39:42</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44409.52756944444</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22312,10 +21736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:39:25</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44409.52737268519</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22379,10 +21801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:39:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44409.52719907407</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22450,10 +21870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:37:43</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44409.52619212963</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22525,10 +21943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:37:10</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44409.52581018519</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22601,10 +22017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:36:31</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44409.52535879629</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22680,10 +22094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:36:20</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44409.52523148148</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22759,10 +22171,8 @@
           <t>5043194968</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:36:16</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44409.52518518519</v>
       </c>
       <c r="I304" t="n">
         <v>12</v>
@@ -22838,10 +22248,8 @@
           <t>5043187715</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:35:37</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44409.52473379629</v>
       </c>
       <c r="I305" t="n">
         <v>40</v>
@@ -22917,10 +22325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:35:10</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44409.52442129629</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22988,10 +22394,8 @@
           <t>5043186433</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:35:04</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44409.52435185185</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -23067,10 +22471,8 @@
           <t>5043150626</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:34:40</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44409.52407407408</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -23142,10 +22544,8 @@
           <t>5043177588</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:33:38</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44409.52335648148</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23221,10 +22621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:33:23</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44409.52318287037</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23300,10 +22698,8 @@
           <t>5043170698</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:32:44</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44409.52273148148</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23380,10 +22776,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:32:27</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44409.52253472222</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23455,10 +22849,8 @@
           <t>5043150626</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:31:23</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44409.52179398148</v>
       </c>
       <c r="I313" t="n">
         <v>11</v>
@@ -23536,10 +22928,8 @@
           <t>5043150626</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:30:39</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44409.52128472222</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23615,10 +23005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:29:53</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44409.52075231481</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23694,10 +23082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:29:50</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44409.52071759259</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23773,10 +23159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:29:17</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44409.52033564815</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23851,10 +23235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:28:23</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44409.51971064815</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23922,10 +23304,8 @@
           <t>5043122633</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:27:27</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44409.5190625</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -24001,10 +23381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:27:20</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44409.51898148148</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24081,10 +23459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:27:12</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44409.51888888889</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -24152,10 +23528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:58</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44409.51872685185</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24227,10 +23601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:49</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44409.51862268519</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24290,10 +23662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:46</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44409.51858796296</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24369,10 +23739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:37</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44409.5184837963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24450,10 +23818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:26</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44409.51835648148</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24521,10 +23887,8 @@
           <t>5043113963</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:11</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44409.51818287037</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24596,10 +23960,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:11</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44409.51818287037</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24675,10 +24037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:01</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44409.51806712963</v>
       </c>
       <c r="I329" t="n">
         <v>825</v>
@@ -24746,10 +24106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:26:00</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44409.51805555556</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24821,10 +24179,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:25:11</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44409.51748842592</v>
       </c>
       <c r="I331" t="n">
         <v>11</v>
@@ -24892,10 +24248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:25:09</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44409.51746527778</v>
       </c>
       <c r="I332" t="n">
         <v>329</v>
@@ -24967,10 +24321,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:24:52</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44409.51726851852</v>
       </c>
       <c r="I333" t="n">
         <v>5</v>
@@ -25042,10 +24394,8 @@
           <t>5043101178</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:24:16</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44409.51685185185</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -25113,10 +24463,8 @@
           <t>5043094381</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:24:03</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44409.51670138889</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25181,10 +24529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:23:38</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44409.51641203704</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25252,10 +24598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:21:21</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44409.51482638889</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25331,10 +24675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:21:05</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44409.51464120371</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25410,10 +24752,8 @@
           <t>5043076831</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:20:55</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44409.51452546296</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25481,10 +24821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:20:13</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44409.51403935185</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25552,10 +24890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:20:01</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44409.51390046296</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25619,10 +24955,8 @@
           <t>5043058218</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:19:23</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44409.51346064815</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25698,10 +25032,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:19:10</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44409.51331018518</v>
       </c>
       <c r="I343" t="n">
         <v>59</v>
@@ -25777,10 +25109,8 @@
           <t>5043057542</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:19:06</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44409.51326388889</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25840,10 +25170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:18:30</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44409.51284722222</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25911,10 +25239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:18:26</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44409.51280092593</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25993,10 +25319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:17:35</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44409.51221064815</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -26060,10 +25384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:17:19</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44409.51202546297</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26176,10 +25498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:17:16</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44409.51199074074</v>
       </c>
       <c r="I349" t="n">
         <v>5</v>
@@ -26243,10 +25563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:17:11</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44409.51193287037</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26322,10 +25640,8 @@
           <t>5043046522</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:17:10</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44409.5119212963</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26401,10 +25717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:16:23</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44409.51137731481</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -26468,10 +25782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:15:48</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44409.51097222222</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26539,10 +25851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:15:10</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44409.51053240741</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -26606,10 +25916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:14:22</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44409.50997685185</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26681,10 +25989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:14:08</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44409.50981481482</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26760,10 +26066,8 @@
           <t>5042990776</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:13:50</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44409.50960648148</v>
       </c>
       <c r="I357" t="n">
         <v>5</v>
@@ -26827,10 +26131,8 @@
           <t>5043014503</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:13:40</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44409.50949074074</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26895,10 +26197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:13:02</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44409.50905092592</v>
       </c>
       <c r="I359" t="n">
         <v>147</v>
@@ -26970,10 +26270,8 @@
           <t>5043011456</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:12:26</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44409.50863425926</v>
       </c>
       <c r="I360" t="n">
         <v>52</v>
@@ -27049,10 +26347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:11:44</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44409.50814814815</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27120,10 +26416,8 @@
           <t>5043005111</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:11:15</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44409.5078125</v>
       </c>
       <c r="I362" t="n">
         <v>6</v>
@@ -27191,10 +26485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:10:53</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44409.50755787037</v>
       </c>
       <c r="I363" t="n">
         <v>70</v>
@@ -27270,10 +26562,8 @@
           <t>5042989294</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:10:51</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44409.50753472222</v>
       </c>
       <c r="I364" t="n">
         <v>19</v>
@@ -27341,10 +26631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:10:36</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44409.50736111111</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -27412,10 +26700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:10:34</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44409.50733796296</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27487,10 +26773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:10:29</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44409.50728009259</v>
       </c>
       <c r="I367" t="n">
         <v>4</v>
@@ -27554,10 +26838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:10:04</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44409.50699074074</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27629,10 +26911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:48</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44409.50680555555</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27708,10 +26988,8 @@
           <t>5042990776</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:40</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44409.50671296296</v>
       </c>
       <c r="I370" t="n">
         <v>11</v>
@@ -27788,10 +27066,8 @@
           <t>5042985977</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:36</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44409.50666666667</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27861,10 +27137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:23</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44409.50651620371</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27928,10 +27202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:21</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44409.50649305555</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -28007,10 +27279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:09:14</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44409.50641203704</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -28074,10 +27344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:52</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44409.50615740741</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28141,10 +27409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:42</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44409.50604166667</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28220,10 +27486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:35</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44409.50596064814</v>
       </c>
       <c r="I377" t="n">
         <v>6</v>
@@ -28300,10 +27564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:32</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44409.50592592593</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28379,10 +27641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:29</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44409.50589120371</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28450,10 +27710,8 @@
           <t>5042972498</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:17</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44409.50575231481</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28529,10 +27787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:08:12</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44409.50569444444</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28604,10 +27860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:49</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44409.50542824074</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28675,10 +27929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:48</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44409.50541666667</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28754,10 +28006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:30</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44409.50520833334</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28826,10 +28076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:28</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44409.50518518518</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28905,10 +28153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:17</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44409.50505787037</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28976,10 +28222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:14</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44409.50502314815</v>
       </c>
       <c r="I387" t="n">
         <v>49</v>
@@ -29055,10 +28299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:07</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44409.50494212963</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29134,10 +28376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:07:05</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44409.50491898148</v>
       </c>
       <c r="I389" t="n">
         <v>3</v>
@@ -29201,10 +28441,8 @@
           <t>5042968246</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:57</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44409.50482638889</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29276,10 +28514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:54</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44409.50479166667</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29339,10 +28575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:46</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44409.50469907407</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29414,10 +28648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:29</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44409.50450231481</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29493,10 +28725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:26</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44409.50446759259</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29564,10 +28794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:23</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44409.50443287037</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29635,10 +28863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:06:09</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44409.50427083333</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29702,10 +28928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:48</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44409.50402777778</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29777,10 +29001,8 @@
           <t>5042954992</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:47</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44409.5040162037</v>
       </c>
       <c r="I398" t="n">
         <v>8</v>
@@ -29848,10 +29070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:39</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44409.50392361111</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29927,10 +29147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:36</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44409.50388888889</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -30002,10 +29220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:36</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44409.50388888889</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -30073,10 +29289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:30</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44409.50381944444</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -30148,10 +29362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:28</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44409.5037962963</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30215,10 +29427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:26</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44409.50377314815</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30286,10 +29496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:23</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44409.50373842593</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30357,10 +29565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:20</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44409.5037037037</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30436,10 +29642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:13</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44409.50362268519</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30511,10 +29715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:13</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44409.50362268519</v>
       </c>
       <c r="I408" t="n">
         <v>10</v>
@@ -30590,10 +29792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:05:11</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44409.50359953703</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30669,10 +29869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:53</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44409.5033912037</v>
       </c>
       <c r="I410" t="n">
         <v>5</v>
@@ -30748,10 +29946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:53</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44409.5033912037</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30819,10 +30015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:47</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44409.50332175926</v>
       </c>
       <c r="I412" t="n">
         <v>162</v>
@@ -30890,10 +30084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:42</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44409.50326388889</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30965,10 +30157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:29</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44409.50311342593</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -31032,10 +30222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:20</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44409.50300925926</v>
       </c>
       <c r="I415" t="n">
         <v>313</v>
@@ -31107,10 +30295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:19</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44409.50299768519</v>
       </c>
       <c r="I416" t="n">
         <v>359</v>
@@ -31186,10 +30372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:10</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44409.50289351852</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31261,10 +30445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:08</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44409.50287037037</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31340,10 +30522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:07</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44409.5028587963</v>
       </c>
       <c r="I419" t="n">
         <v>18</v>
@@ -31407,10 +30587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:07</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44409.5028587963</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31482,10 +30660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:04:03</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44409.5028125</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31553,10 +30729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:03:59</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44409.5027662037</v>
       </c>
       <c r="I422" t="n">
         <v>1804</v>
@@ -31632,10 +30806,8 @@
           <t>5042939928</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:03:59</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44409.5027662037</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31707,10 +30879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:03:55</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44409.50271990741</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31780,10 +30950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:03:54</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44409.50270833333</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31847,10 +31015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:03:45</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44409.50260416666</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
